--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationlist.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationlist.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -408,7 +408,7 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -440,7 +440,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -458,7 +458,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -496,7 +496,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -505,7 +505,7 @@
     <t>Bundle.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -851,7 +851,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>Bundle.entry.link</t>
@@ -1135,6 +1135,10 @@
     <t>URI for resource (Absolute URL server address or URI for UUID/OID)</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-core-doc-1:The fullUrl must be an absolute URL server address or an UUID {startsWith('http') or startsWith('urn:uuid:') = true}</t>
+  </si>
+  <si>
     <t>Bundle.entry:Composition.resource</t>
   </si>
   <si>
@@ -1717,11 +1721,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2161,10 +2165,6 @@
   </si>
   <si>
     <t>Bundle.entry:Binary.fullUrl</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-doc-1:The fullUrl must be an absolute URL server address or an UUID {startsWith('http') or startsWith('urn:uuid:') = true}</t>
   </si>
   <si>
     <t>Bundle.entry:Binary.resource</t>
@@ -2754,11 +2754,11 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-observation}
+    <t xml:space="preserve">Observation {http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-observation-list}
 </t>
   </si>
   <si>
-    <t>CH EMED Observation (PADV)</t>
+    <t>CH EMED Observation (LIST)</t>
   </si>
   <si>
     <t>Measurements and simple assertions made about a patient, device or other subject.</t>
@@ -3280,17 +3280,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3299,26 +3299,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -11246,7 +11246,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>274</v>
@@ -11289,16 +11289,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11366,10 +11366,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>278</v>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>282</v>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>283</v>
@@ -11715,7 +11715,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>285</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>296</v>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>300</v>
@@ -12283,7 +12283,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>301</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>302</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>303</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>308</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>312</v>
@@ -12851,7 +12851,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>315</v>
@@ -12963,7 +12963,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>317</v>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>320</v>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>323</v>
@@ -13299,7 +13299,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>327</v>
@@ -13411,7 +13411,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>328</v>
@@ -13525,7 +13525,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>329</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>330</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>333</v>
@@ -13865,7 +13865,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>336</v>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>340</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>344</v>
@@ -14207,13 +14207,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
@@ -14238,7 +14238,7 @@
         <v>234</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>257</v>
@@ -14321,7 +14321,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>260</v>
@@ -14433,7 +14433,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>261</v>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>262</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>266</v>
@@ -14771,7 +14771,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>269</v>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>88</v>
@@ -14868,7 +14868,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14885,14 +14885,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14911,13 +14911,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14986,10 +14986,10 @@
         <v>78</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>278</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>282</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>283</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>285</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>296</v>
@@ -15791,7 +15791,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>300</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>301</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>302</v>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>303</v>
@@ -16245,7 +16245,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>308</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>312</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>315</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>317</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>320</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>323</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>327</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>328</v>
@@ -17145,7 +17145,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>329</v>
@@ -17261,7 +17261,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>330</v>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>333</v>
@@ -17485,7 +17485,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>336</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>340</v>
@@ -17713,7 +17713,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>344</v>
@@ -17827,13 +17827,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>78</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>260</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>261</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>262</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>266</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>269</v>
@@ -18402,7 +18402,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>88</v>
@@ -18488,7 +18488,7 @@
         <v>78</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>78</v>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>274</v>
@@ -18531,13 +18531,13 @@
         <v>78</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18603,10 +18603,10 @@
         <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>78</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>278</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>282</v>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>283</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>285</v>
@@ -19185,7 +19185,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -19299,7 +19299,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>296</v>
@@ -19411,7 +19411,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>300</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>301</v>
@@ -19637,7 +19637,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>302</v>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>303</v>
@@ -19865,7 +19865,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>308</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>312</v>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>315</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>317</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>320</v>
@@ -20427,7 +20427,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>323</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>327</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>328</v>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>329</v>
@@ -20881,7 +20881,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>330</v>
@@ -20993,7 +20993,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>333</v>
@@ -21105,7 +21105,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>336</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>340</v>
@@ -21333,7 +21333,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>344</v>
@@ -21447,13 +21447,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21561,7 +21561,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>260</v>
@@ -21673,7 +21673,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>261</v>
@@ -21787,7 +21787,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>262</v>
@@ -21899,7 +21899,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>266</v>
@@ -22011,7 +22011,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>269</v>
@@ -22022,7 +22022,7 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>88</v>
@@ -22108,7 +22108,7 @@
         <v>78</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>78</v>
@@ -22125,7 +22125,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>274</v>
@@ -22151,13 +22151,13 @@
         <v>78</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22223,10 +22223,10 @@
         <v>78</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>78</v>
@@ -22237,7 +22237,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>278</v>
@@ -22349,7 +22349,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>282</v>
@@ -22461,7 +22461,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>283</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22691,7 +22691,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>285</v>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22919,7 +22919,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>296</v>
@@ -23031,7 +23031,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>300</v>
@@ -23143,7 +23143,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>301</v>
@@ -23257,7 +23257,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>302</v>
@@ -23373,7 +23373,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>303</v>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>308</v>
@@ -23599,7 +23599,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>312</v>
@@ -23711,7 +23711,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>315</v>
@@ -23823,7 +23823,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>317</v>
@@ -23935,7 +23935,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>320</v>
@@ -24047,7 +24047,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>323</v>
@@ -24159,7 +24159,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>327</v>
@@ -24271,7 +24271,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>328</v>
@@ -24385,7 +24385,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>329</v>
@@ -24501,7 +24501,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>330</v>
@@ -24613,7 +24613,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>333</v>
@@ -24725,7 +24725,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>336</v>
@@ -24839,7 +24839,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>340</v>
@@ -24953,7 +24953,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>344</v>
@@ -25067,13 +25067,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>78</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>260</v>
@@ -25293,7 +25293,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>261</v>
@@ -25407,7 +25407,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>262</v>
@@ -25519,7 +25519,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>266</v>
@@ -25631,7 +25631,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>269</v>
@@ -25642,7 +25642,7 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>88</v>
@@ -25728,7 +25728,7 @@
         <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>78</v>
@@ -25745,7 +25745,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>274</v>
@@ -25771,13 +25771,13 @@
         <v>78</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25843,10 +25843,10 @@
         <v>78</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>78</v>
@@ -25857,7 +25857,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>278</v>
@@ -25969,7 +25969,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>282</v>
@@ -26081,7 +26081,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>283</v>
@@ -26195,7 +26195,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -26311,7 +26311,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>285</v>
@@ -26425,7 +26425,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26539,7 +26539,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>296</v>
@@ -26651,7 +26651,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>300</v>
@@ -26763,7 +26763,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>301</v>
@@ -26877,7 +26877,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>302</v>
@@ -26993,7 +26993,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>303</v>
@@ -27105,7 +27105,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>308</v>
@@ -27219,7 +27219,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>312</v>
@@ -27331,7 +27331,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>315</v>
@@ -27443,7 +27443,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>317</v>
@@ -27555,7 +27555,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>320</v>
@@ -27667,7 +27667,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>323</v>
@@ -27779,7 +27779,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>327</v>
@@ -27891,7 +27891,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>328</v>
@@ -28005,7 +28005,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>329</v>
@@ -28121,7 +28121,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>330</v>
@@ -28233,7 +28233,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>333</v>
@@ -28345,7 +28345,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>336</v>
@@ -28459,7 +28459,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>340</v>
@@ -28573,7 +28573,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>344</v>
@@ -28687,13 +28687,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>78</v>
@@ -28801,7 +28801,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>260</v>
@@ -28913,7 +28913,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>261</v>
@@ -29027,7 +29027,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>262</v>
@@ -29139,7 +29139,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>266</v>
@@ -29251,7 +29251,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>269</v>
@@ -29262,7 +29262,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>88</v>
@@ -29348,7 +29348,7 @@
         <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK230" t="s" s="2">
         <v>78</v>
@@ -29365,7 +29365,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>274</v>
@@ -29391,13 +29391,13 @@
         <v>78</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -29466,7 +29466,7 @@
         <v>78</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>78</v>
@@ -29477,7 +29477,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>278</v>
@@ -29589,7 +29589,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>282</v>
@@ -29701,7 +29701,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>283</v>
@@ -29815,7 +29815,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29931,7 +29931,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>285</v>
@@ -30045,7 +30045,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -30159,7 +30159,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>296</v>
@@ -30271,7 +30271,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>300</v>
@@ -30383,7 +30383,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>301</v>
@@ -30497,7 +30497,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>302</v>
@@ -30613,7 +30613,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>303</v>
@@ -30725,7 +30725,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>308</v>
@@ -30839,7 +30839,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>312</v>
@@ -30951,7 +30951,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>315</v>
@@ -31063,7 +31063,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>317</v>
@@ -31175,7 +31175,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>320</v>
@@ -31287,7 +31287,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>323</v>
@@ -31399,7 +31399,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>327</v>
@@ -31511,7 +31511,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>328</v>
@@ -31625,7 +31625,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>329</v>
@@ -31741,7 +31741,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>330</v>
@@ -31853,7 +31853,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>333</v>
@@ -31965,7 +31965,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>336</v>
@@ -32079,7 +32079,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>340</v>
@@ -32193,7 +32193,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>344</v>
@@ -32307,13 +32307,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>78</v>
@@ -32421,7 +32421,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>260</v>
@@ -32533,7 +32533,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>261</v>
@@ -32647,7 +32647,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>262</v>
@@ -32759,7 +32759,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>266</v>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>269</v>
@@ -32882,7 +32882,7 @@
       </c>
       <c r="E262" s="2"/>
       <c r="F262" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G262" t="s" s="2">
         <v>88</v>
@@ -32968,7 +32968,7 @@
         <v>78</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK262" t="s" s="2">
         <v>78</v>
@@ -32985,7 +32985,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>274</v>
@@ -33011,13 +33011,13 @@
         <v>78</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -33086,7 +33086,7 @@
         <v>78</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>78</v>
@@ -33097,7 +33097,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>278</v>
@@ -33209,7 +33209,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>282</v>
@@ -33321,7 +33321,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>283</v>
@@ -33435,7 +33435,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33551,7 +33551,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>285</v>
@@ -33665,7 +33665,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33779,7 +33779,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>296</v>
@@ -33891,7 +33891,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>300</v>
@@ -34003,7 +34003,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>301</v>
@@ -34117,7 +34117,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>302</v>
@@ -34233,7 +34233,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>303</v>
@@ -34345,7 +34345,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>308</v>
@@ -34459,7 +34459,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>312</v>
@@ -34571,7 +34571,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>315</v>
@@ -34683,7 +34683,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>317</v>
@@ -34795,7 +34795,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>320</v>
@@ -34907,7 +34907,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>323</v>
@@ -35019,7 +35019,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>327</v>
@@ -35131,7 +35131,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>328</v>
@@ -35245,7 +35245,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>329</v>
@@ -35361,7 +35361,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>330</v>
@@ -35473,7 +35473,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>333</v>
@@ -35585,7 +35585,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>336</v>
@@ -35699,7 +35699,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>340</v>
@@ -35813,7 +35813,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>344</v>
@@ -35927,13 +35927,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>78</v>
@@ -36041,7 +36041,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>260</v>
@@ -36153,7 +36153,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>261</v>
@@ -36267,7 +36267,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>262</v>
@@ -36379,7 +36379,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>266</v>
@@ -36491,7 +36491,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>269</v>
@@ -36502,7 +36502,7 @@
       </c>
       <c r="E294" s="2"/>
       <c r="F294" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G294" t="s" s="2">
         <v>88</v>
@@ -36588,7 +36588,7 @@
         <v>78</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK294" t="s" s="2">
         <v>78</v>
@@ -36605,14 +36605,14 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36631,13 +36631,13 @@
         <v>78</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -36706,7 +36706,7 @@
         <v>78</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>78</v>
@@ -36717,7 +36717,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>278</v>
@@ -36829,7 +36829,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>282</v>
@@ -36941,7 +36941,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>283</v>
@@ -37055,7 +37055,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -37171,7 +37171,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>285</v>
@@ -37285,7 +37285,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -37399,7 +37399,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>296</v>
@@ -37511,7 +37511,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>300</v>
@@ -37623,7 +37623,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>301</v>
@@ -37737,7 +37737,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>302</v>
@@ -37853,7 +37853,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>303</v>
@@ -37965,7 +37965,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>308</v>
@@ -38079,7 +38079,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>312</v>
@@ -38191,7 +38191,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>315</v>
@@ -38303,7 +38303,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>317</v>
@@ -38415,7 +38415,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>320</v>
@@ -38527,7 +38527,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>323</v>
@@ -38639,7 +38639,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>327</v>
@@ -38751,7 +38751,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>328</v>
@@ -38865,7 +38865,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>329</v>
@@ -38981,7 +38981,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>330</v>
@@ -39093,7 +39093,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>333</v>
@@ -39205,7 +39205,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>336</v>
@@ -39319,7 +39319,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>340</v>
@@ -39433,7 +39433,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>344</v>
@@ -39547,13 +39547,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>78</v>
@@ -39661,7 +39661,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>260</v>
@@ -39773,7 +39773,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>261</v>
@@ -39887,7 +39887,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>262</v>
@@ -39999,7 +39999,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>266</v>
@@ -40111,7 +40111,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>269</v>
@@ -40122,7 +40122,7 @@
       </c>
       <c r="E326" s="2"/>
       <c r="F326" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G326" t="s" s="2">
         <v>88</v>
@@ -40208,7 +40208,7 @@
         <v>78</v>
       </c>
       <c r="AJ326" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK326" t="s" s="2">
         <v>78</v>
@@ -40225,7 +40225,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>274</v>
@@ -40251,13 +40251,13 @@
         <v>78</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -40326,7 +40326,7 @@
         <v>78</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>78</v>
@@ -40337,7 +40337,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>278</v>
@@ -40449,7 +40449,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>282</v>
@@ -40561,7 +40561,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>283</v>
@@ -40675,7 +40675,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40791,7 +40791,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>285</v>
@@ -40905,7 +40905,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -41019,7 +41019,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>296</v>
@@ -41131,7 +41131,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>300</v>
@@ -41243,7 +41243,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>301</v>
@@ -41357,7 +41357,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>302</v>
@@ -41473,7 +41473,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>303</v>
@@ -41585,7 +41585,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>308</v>
@@ -41699,7 +41699,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>312</v>
@@ -41811,7 +41811,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>315</v>
@@ -41923,7 +41923,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>317</v>
@@ -42035,7 +42035,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>320</v>
@@ -42147,7 +42147,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>323</v>
@@ -42259,7 +42259,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>327</v>
@@ -42371,7 +42371,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>328</v>
@@ -42485,7 +42485,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>329</v>
@@ -42601,7 +42601,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>330</v>
@@ -42713,7 +42713,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>333</v>
@@ -42825,7 +42825,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>336</v>
@@ -42939,7 +42939,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>340</v>
@@ -43053,7 +43053,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>344</v>
@@ -43167,13 +43167,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>78</v>
@@ -43281,7 +43281,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>260</v>
@@ -43393,7 +43393,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>261</v>
@@ -43507,7 +43507,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>262</v>
@@ -43619,7 +43619,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>266</v>
@@ -43731,7 +43731,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>269</v>
@@ -43828,7 +43828,7 @@
         <v>78</v>
       </c>
       <c r="AJ358" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK358" t="s" s="2">
         <v>78</v>
@@ -47450,7 +47450,7 @@
         <v>78</v>
       </c>
       <c r="AJ390" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK390" t="s" s="2">
         <v>78</v>
@@ -51072,7 +51072,7 @@
         <v>78</v>
       </c>
       <c r="AJ422" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK422" t="s" s="2">
         <v>78</v>
@@ -54692,7 +54692,7 @@
         <v>78</v>
       </c>
       <c r="AJ454" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK454" t="s" s="2">
         <v>78</v>
@@ -58312,7 +58312,7 @@
         <v>78</v>
       </c>
       <c r="AJ486" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK486" t="s" s="2">
         <v>78</v>
@@ -61932,7 +61932,7 @@
         <v>78</v>
       </c>
       <c r="AJ518" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK518" t="s" s="2">
         <v>78</v>
@@ -65554,7 +65554,7 @@
         <v>78</v>
       </c>
       <c r="AJ550" t="s" s="2">
-        <v>695</v>
+        <v>356</v>
       </c>
       <c r="AK550" t="s" s="2">
         <v>78</v>
